--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -708,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -732,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -748,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -756,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -764,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -893,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -901,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -933,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -941,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -957,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -973,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -981,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -997,7 +997,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -1013,7 +1013,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -1021,7 +1021,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1102,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -1134,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -1142,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1166,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -1182,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -1190,7 +1190,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -1198,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1222,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1238,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1303,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1335,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1343,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1359,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -1383,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -1391,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -1399,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -1407,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -1415,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -1423,7 +1423,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -1431,7 +1431,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1447,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1463,7 +1463,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -1471,7 +1471,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -1528,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -1608,7 +1608,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1616,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -1624,7 +1624,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1632,7 +1632,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -1640,7 +1640,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -1648,7 +1648,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -1656,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -1672,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -1688,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -1696,7 +1696,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,201 +376,369 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -581,7 +749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -601,201 +769,369 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -806,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -826,202 +1162,370 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>129</v>
+      <c r="B47">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,201 +1555,369 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1256,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,202 +1948,370 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>117</v>
+      <c r="B47">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +2321,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +2341,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1509,7 +2349,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1517,186 +2357,354 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>-14</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>-8</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>110</v>
+      <c r="B47">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,369 +376,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -749,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -769,369 +609,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1142,7 +822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1162,369 +842,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1535,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1555,369 +1075,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -1928,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1948,369 +1308,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>
@@ -2321,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2341,369 +1541,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>17</v>
-      </c>
-      <c r="B39">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>25</v>
-      </c>
-      <c r="B47">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
@@ -547,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -708,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -965,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -981,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -1005,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -1013,7 +1013,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -1029,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -1037,7 +1037,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1134,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -1174,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1206,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1246,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -1262,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1270,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1415,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1495,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1640,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1696,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -1720,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1728,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -1736,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1744,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
